--- a/Project RP07 Letter2 .xlsx
+++ b/Project RP07 Letter2 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C317E-C445-40F9-93AA-72765414305E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C05629-9149-4AF2-AAE8-24E7259104FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2325" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
   <si>
     <t>Country</t>
   </si>
@@ -357,6 +357,18 @@
   </si>
   <si>
     <t>E6 2JA</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Chadwell Heath</t>
+  </si>
+  <si>
+    <t>East Ham</t>
+  </si>
+  <si>
+    <t>Hainault</t>
   </si>
 </sst>
 </file>
@@ -777,11 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,14 +808,14 @@
     <col min="12" max="12" width="11.28515625" style="9" customWidth="1"/>
     <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="9" customWidth="1"/>
-    <col min="18" max="20" width="16.5703125" style="9" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" customWidth="1"/>
+    <col min="15" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="9" customWidth="1"/>
+    <col min="19" max="21" width="16.5703125" style="9" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -850,73 +862,76 @@
         <v>58</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -962,19 +977,22 @@
       <c r="O2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S2"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1020,19 +1038,22 @@
       <c r="O3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S3"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1078,19 +1099,22 @@
       <c r="O4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S4"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1107,12 +1131,13 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" s="9"/>
+      <c r="Q5"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="8"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1129,12 +1154,13 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="8"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1151,12 +1177,13 @@
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7" s="9"/>
+      <c r="Q7"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1173,12 +1200,13 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8" s="9"/>
+      <c r="Q8"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="8"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1195,12 +1223,13 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="8"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1217,12 +1246,13 @@
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="8"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:37" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1239,16 +1269,21 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
-      <c r="Q11" s="9"/>
+      <c r="Q11"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="8"/>
+      <c r="S11" s="9"/>
       <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{08A021FB-6AFD-4985-B4BB-468E294B1CC7}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{08A021FB-6AFD-4985-B4BB-468E294B1CC7}">
       <formula1>"Quarterly,Annual"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{E2FAF717-ACB8-4C51-911C-0CBF49C6A628}">
+      <formula1>"Chadwell Heath,East Ham,Hainault,Hatton"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project RP07 Letter2 .xlsx
+++ b/Project RP07 Letter2 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C05629-9149-4AF2-AAE8-24E7259104FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ABB743-B006-4F93-BB2F-5B930853D9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2325" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$O$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>Country</t>
   </si>
@@ -311,15 +311,6 @@
     <t>c8</t>
   </si>
   <si>
-    <t>Address_City</t>
-  </si>
-  <si>
-    <t>Address_Country</t>
-  </si>
-  <si>
-    <t>Address_P</t>
-  </si>
-  <si>
     <t>58 Peregrine Road</t>
   </si>
   <si>
@@ -347,35 +338,59 @@
     <t xml:space="preserve"> London</t>
   </si>
   <si>
-    <t>Building_Name_no</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
     <t>IG6 3SZ</t>
   </si>
   <si>
     <t>E6 2JA</t>
   </si>
   <si>
+    <t>Chadwell Heath</t>
+  </si>
+  <si>
+    <t>East Ham</t>
+  </si>
+  <si>
+    <t>Hainault</t>
+  </si>
+  <si>
+    <t>RP07_ADDRESS_FIELD1</t>
+  </si>
+  <si>
+    <t>RP07_ADDRESS_FIELD2</t>
+  </si>
+  <si>
+    <t>RP07_ADDRESS_FIELD3</t>
+  </si>
+  <si>
+    <t>RP07_ADDRESS_FIELD4</t>
+  </si>
+  <si>
+    <t>RP07_ADDRESS_FIELD5</t>
+  </si>
+  <si>
+    <t>RP07_ADDRESS_POSTCODE</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Chadwell Heath</t>
-  </si>
-  <si>
-    <t>East Ham</t>
-  </si>
-  <si>
-    <t>Hainault</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +465,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -472,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,6 +530,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,33 +815,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="106.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="16" width="23.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="9" customWidth="1"/>
-    <col min="19" max="21" width="16.5703125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="43" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -829,109 +865,121 @@
         <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP1" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -945,54 +993,57 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>14050473</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T2"/>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2"/>
+      <c r="W2" s="12"/>
+    </row>
+    <row r="3" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1006,54 +1057,57 @@
         <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>97</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="5">
+        <v>98</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="5">
         <v>74400</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>14054325</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T3"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1067,54 +1121,57 @@
         <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>101</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="5">
+        <v>98</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="5">
         <v>37720</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>14244337</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T4"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1126,18 +1183,20 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" s="9"/>
-      <c r="M5"/>
+      <c r="L5"/>
+      <c r="M5" s="9"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1149,18 +1208,20 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" s="9"/>
-      <c r="M6"/>
+      <c r="L6"/>
+      <c r="M6" s="9"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1172,18 +1233,20 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7" s="9"/>
-      <c r="M7"/>
+      <c r="L7"/>
+      <c r="M7" s="9"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1195,18 +1258,20 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" s="9"/>
-      <c r="M8"/>
+      <c r="L8"/>
+      <c r="M8" s="9"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-    </row>
-    <row r="9" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1218,18 +1283,20 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" s="9"/>
-      <c r="M9"/>
+      <c r="L9"/>
+      <c r="M9" s="9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1241,18 +1308,20 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" s="9"/>
-      <c r="M10"/>
+      <c r="L10"/>
+      <c r="M10" s="9"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" spans="1:38" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1264,25 +1333,27 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" s="9"/>
-      <c r="M11"/>
+      <c r="L11"/>
+      <c r="M11" s="9"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{08A021FB-6AFD-4985-B4BB-468E294B1CC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S1048576 R2:R4" xr:uid="{08A021FB-6AFD-4985-B4BB-468E294B1CC7}">
       <formula1>"Quarterly,Annual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{E2FAF717-ACB8-4C51-911C-0CBF49C6A628}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R1048576 Q2:Q4" xr:uid="{E2FAF717-ACB8-4C51-911C-0CBF49C6A628}">
       <formula1>"Chadwell Heath,East Ham,Hainault,Hatton"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1295,7 +1366,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
+          <xm:sqref>P2:Q1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1305,15 +1376,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14689D7-5E51-42DA-860E-AA04781E9E90}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="A6:N8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1436,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1517,6 +1588,47 @@
       <c r="M5" s="8" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="6" spans="1:41" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Project RP07 Letter2 .xlsx
+++ b/Project RP07 Letter2 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ABB743-B006-4F93-BB2F-5B930853D9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2DC8C4-69A3-4046-B943-50B311175EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -495,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,6 +540,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,9 +828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +853,7 @@
     <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" style="9" customWidth="1"/>
     <col min="23" max="23" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -918,13 +929,13 @@
       <c r="V1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="13" t="s">
         <v>78</v>
       </c>
       <c r="Z1" s="13" t="s">
